--- a/pred_ohlcv/54_21/2019-10-26 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 MITH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>155838.1941</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>155838.1941</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>155838.1941</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>179538.1941</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>179538.1941</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>179538.1941</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>353018.1941</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>353018.1941</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>411708.1941</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>636499.3901</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>626706.0701</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>626706.0701</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>620606.0701</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>620606.0701</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>454176.0701</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>405476.0701</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>405476.0701</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>405476.0701</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>247038.0701</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>152638.0701</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>152638.0701</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>152638.0701</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>152638.0701</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>152638.0701</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>152638.0701</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>152638.0701</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>8444.070100000012</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>12171.54940000001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>12171.54940000001</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>17055.59760000001</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>42556.78800000002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>42546.78800000002</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>48808.16220000001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-111513.9149</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-111513.9149</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-111513.9149</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-111467.9149</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-110742.0646</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-61970.67009999996</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-247993.7092999999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-247993.7092999999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-230193.7092999999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-230193.7092999999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-236992.8968999999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-183596.3216999999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-183596.3216999999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>432849.1064116129</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>460359.0908741935</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>312774.1983741935</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>312774.1983741935</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>8139092.675174195</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>8139111.119574196</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>8180086.341274196</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>8128407.877474196</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>8128397.877474196</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>8126473.260174196</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>8076585.281374197</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>8116485.281374197</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>8098585.281374197</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>8098585.281374197</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>8079515.147974197</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 MITH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>155838.1941</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>155838.1941</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>155838.1941</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>179538.1941</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>179538.1941</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>179538.1941</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>353018.1941</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>353018.1941</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>411708.1941</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>636499.3901</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>626706.0701</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>626706.0701</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>620606.0701</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>620606.0701</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>454176.0701</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>405476.0701</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>405476.0701</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>405476.0701</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>247038.0701</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>152638.0701</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>152638.0701</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>152638.0701</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>152638.0701</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>152638.0701</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>8444.070100000012</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>12171.54940000001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>12171.54940000001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>42556.78800000002</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>42546.78800000002</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>48808.16220000001</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-247993.7092999999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-247993.7092999999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-230193.7092999999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-230193.7092999999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-236992.8968999999</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-183596.3216999999</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-183596.3216999999</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>432849.1064116129</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>460359.0908741935</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>312774.1983741935</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>312774.1983741935</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>8706969.850774195</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>8706979.850774195</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>8176992.675174195</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>8139092.675174195</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>8139111.119574196</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>8180086.341274196</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>8128407.877474196</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>8128397.877474196</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>8116485.281374197</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
